--- a/XcosStructure/Scratch/Results/g_simul.xlsx
+++ b/XcosStructure/Scratch/Results/g_simul.xlsx
@@ -2455,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>84</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>85</v>
       </c>
@@ -3918,15 +3918,18 @@
         <v>1.2272E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="158" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="1">
+        <v>0</v>
+      </c>
+      <c r="D158" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>87</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>80</v>
       </c>
